--- a/Base de Datos/Subida de Datos/Arma/Arma.xlsx
+++ b/Base de Datos/Subida de Datos/Arma/Arma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Arma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7922DB-576A-4DD0-B799-0E611AAB73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C15491-6F91-4E5E-8F85-F4AF118EA63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>id_arma</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -532,15 +532,15 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -548,15 +548,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -564,31 +564,31 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -628,31 +628,31 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -660,25 +660,17 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Base de Datos/Subida de Datos/Arma/Arma.xlsx
+++ b/Base de Datos/Subida de Datos/Arma/Arma.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Arma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C15491-6F91-4E5E-8F85-F4AF118EA63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A92AAE1-D0F5-4B0C-9C51-A5AF055352A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>id_arma</t>
   </si>
@@ -118,6 +121,27 @@
   </si>
   <si>
     <t>RIFLES</t>
+  </si>
+  <si>
+    <t>SE DESCONOCE</t>
+  </si>
+  <si>
+    <t>BISTURÍES</t>
+  </si>
+  <si>
+    <t>ESTILETE</t>
+  </si>
+  <si>
+    <t>HOJAS DE AFEITAR</t>
+  </si>
+  <si>
+    <t>HACHAS</t>
+  </si>
+  <si>
+    <t>DAGA</t>
+  </si>
+  <si>
+    <t>LANZA</t>
   </si>
 </sst>
 </file>
@@ -435,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,229 +476,281 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C35">
+    <sortCondition ref="C1:C35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>